--- a/VitalSigns/NordicTXTestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
+++ b/VitalSigns/NordicTXTestBuild/StructureDefinition-no-domain-VitalSigns-Observation-pulse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.0</t>
+    <t>0.9.2</t>
   </si>
   <si>
     <t>Name</t>
